--- a/modules/report/template-based-excel-generator/src/test/resources/templates/template.xlsx
+++ b/modules/report/template-based-excel-generator/src/test/resources/templates/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyh/dev/mylib/kotlin/kotlin-common-library/modules/core/template-based-excel-generator/src/test/resources/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyh/dev/mylib/kotlin/kotlin-common-library/modules/report/template-based-excel-generator/src/test/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EB39EC-2275-4543-8E0D-9EF8857B4F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E6C1CB-DD40-C24E-9348-AB2F6373E38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70260" yWindow="-3400" windowWidth="20980" windowHeight="17020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="70260" yWindow="-3400" windowWidth="20980" windowHeight="17020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="세로 확장(기본형)" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Named Range" sheetId="4" r:id="rId4"/>
     <sheet name="확장 함수" sheetId="5" r:id="rId5"/>
     <sheet name="멀티 반복" sheetId="7" r:id="rId6"/>
+    <sheet name="빈 컬렉션" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="employeeList">'Named Range'!$A$6:$C$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="149" r:id="rId7"/>
+    <pivotCache cacheId="205" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="49">
   <si>
     <t>${title}</t>
   </si>
@@ -117,10 +118,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${repeat(collection=employees, range=A6:C6, var=emp)}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${repeat(collection=employees, range=b5:b7, var=emp, direction=RIGHT)}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -228,6 +225,30 @@
   </si>
   <si>
     <t>${image(logo)}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈직급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터가 없습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${size(emptyCollection)}명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${repeat(collection=employees, range=A6:C6, var=emp, F4)}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${REPEAT(emptyCollection, F12:H12, emp, H10)}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -238,7 +259,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -340,8 +361,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +390,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,7 +464,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -511,13 +546,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2240,7 +2308,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B913C3A8-83B3-D24B-8F4B-0985F48AA6EC}" name="피벗 테이블3" cacheId="149" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" grandTotalCaption="총" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10" rowHeaderCaption="직급">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B913C3A8-83B3-D24B-8F4B-0985F48AA6EC}" name="피벗 테이블3" cacheId="205" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" grandTotalCaption="총" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10" rowHeaderCaption="직급">
   <location ref="I6:K8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField showAll="0"/>
@@ -2284,17 +2352,17 @@
     <dataField name="평균 급여" fld="2" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="15">
-    <format dxfId="21">
+    <format dxfId="24">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="23">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="22">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -2304,7 +2372,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="21">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -2314,7 +2382,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="20">
       <pivotArea field="1" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2323,7 +2391,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="19">
       <pivotArea field="1" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2332,23 +2400,23 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="18">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -2358,28 +2426,28 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
@@ -2456,7 +2524,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7D345E0-1F9E-3542-9E98-DBF333DED568}" name="피벗 테이블2" cacheId="149" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7D345E0-1F9E-3542-9E98-DBF333DED568}" name="피벗 테이블2" cacheId="205" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M6:N8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -2839,7 +2907,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2860,11 +2928,11 @@
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="22"/>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1" s="25" t="str">
         <f>HYPERLINK("${url}", "${linkText}")</f>
@@ -2886,7 +2954,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2913,22 +2984,22 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>2</v>
       </c>
       <c r="J6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="13" t="s">
+      <c r="N6" t="s">
         <v>20</v>
-      </c>
-      <c r="N6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2953,10 +3024,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" s="16">
         <v>0</v>
@@ -2965,7 +3036,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -2982,7 +3053,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2994,7 +3065,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>6000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3030,11 +3101,11 @@
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
       <c r="D1" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="22"/>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="32" customHeight="1">
@@ -3052,7 +3123,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1">
@@ -3084,7 +3155,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7">
         <f>SUM(B7)</f>
@@ -3096,22 +3167,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="22"/>
     </row>
@@ -3133,7 +3204,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="B30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3175,11 +3246,11 @@
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="22"/>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="32" customHeight="1">
@@ -3196,7 +3267,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3235,7 +3306,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3257,7 +3328,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>6000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3274,7 +3345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3E7F18-D735-9A4E-BC9A-79E1426A1776}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -3296,11 +3367,11 @@
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="22"/>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1" s="25" t="str">
         <f>HYPERLINK("${url}", "${linkText}")</f>
@@ -3322,7 +3393,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3349,7 +3420,7 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3357,7 +3428,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3371,7 +3442,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3383,7 +3454,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>6000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3478,7 +3549,7 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3501,7 +3572,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3513,7 +3584,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>6000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3600,7 +3671,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3615,12 +3686,12 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="F7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30">
@@ -3628,10 +3699,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
@@ -3650,13 +3721,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="D10" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="F10" t="e" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">TBEG_REPEAT(departments, F12:H12, dep)</f>
@@ -3665,24 +3736,24 @@
     </row>
     <row r="11" spans="1:8">
       <c r="F11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="H11" s="21" t="s">
         <v>31</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="F12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="H12" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3695,17 +3766,17 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>6000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>6000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>6000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3717,4 +3788,200 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA5D6BA-70B1-BE44-ACEE-C077844E4035}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" customWidth="1"/>
+    <col min="5" max="6" width="20" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="50" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="22" t="e" cm="1">
+        <f t="array" aca="1" ref="C1" ca="1">TBEG_IMAGE(ci)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" t="e" cm="1">
+        <f t="array" aca="1" ref="E1" ca="1">TBEG_IMAGE(logo)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F1" s="25" t="str">
+        <f>HYPERLINK("${url}", "${linkText}")</f>
+        <v>${linkText}</v>
+      </c>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="32" customHeight="1">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="e" cm="1">
+        <f t="array" aca="1" ref="A4" ca="1">TBEG_REPEAT(emptyCollection, A6:C6, emp, A13:C13)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <f>SUM(C6)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="8"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="12"/>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="F11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="F12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>-10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F8:H8"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>6000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>6000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>6000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 G12" xr:uid="{BDE2A500-6D72-FC46-90A6-746A5B0F9779}">
+      <formula1>"사원, 대리, 과장, 차장, 부장"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/modules/report/template-based-excel-generator/src/test/resources/templates/template.xlsx
+++ b/modules/report/template-based-excel-generator/src/test/resources/templates/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyh/dev/mylib/kotlin/kotlin-common-library/modules/report/template-based-excel-generator/src/test/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E6C1CB-DD40-C24E-9348-AB2F6373E38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D174E537-DD9E-B649-A62E-DAB87BE3EC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70260" yWindow="-3400" windowWidth="20980" windowHeight="17020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="70160" yWindow="3680" windowWidth="20980" windowHeight="17020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="세로 확장(기본형)" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="205" r:id="rId8"/>
+    <pivotCache cacheId="275" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -244,11 +244,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${repeat(collection=employees, range=A6:C6, var=emp, F4)}</t>
+    <t>${repeat(collection=employees, range=A6:C6, var=emp, empty=F4)}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${REPEAT(emptyCollection, F12:H12, emp, H10)}</t>
+    <t>${REPEAT(emptyCollection, F12:H12, emp, , H10)}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -525,6 +525,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -544,9 +547,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2308,7 +2308,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B913C3A8-83B3-D24B-8F4B-0985F48AA6EC}" name="피벗 테이블3" cacheId="205" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" grandTotalCaption="총" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10" rowHeaderCaption="직급">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B913C3A8-83B3-D24B-8F4B-0985F48AA6EC}" name="피벗 테이블3" cacheId="275" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" grandTotalCaption="총" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10" rowHeaderCaption="직급">
   <location ref="I6:K8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField showAll="0"/>
@@ -2524,7 +2524,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7D345E0-1F9E-3542-9E98-DBF333DED568}" name="피벗 테이블2" cacheId="205" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7D345E0-1F9E-3542-9E98-DBF333DED568}" name="피벗 테이블2" cacheId="275" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M6:N8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -2907,7 +2907,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2923,29 +2923,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="50" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="23"/>
       <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="25" t="str">
+      <c r="F1" s="26" t="str">
         <f>HYPERLINK("${url}", "${linkText}")</f>
         <v>${linkText}</v>
       </c>
-      <c r="G1" s="25"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="32" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
@@ -3084,7 +3084,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -3095,26 +3095,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="50" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="23"/>
       <c r="F1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="32" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -3158,7 +3158,7 @@
         <v>24</v>
       </c>
       <c r="F7">
-        <f>SUM(B7)</f>
+        <f>SUM(B7:B7)</f>
         <v>0</v>
       </c>
     </row>
@@ -3181,26 +3181,26 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="22"/>
+      <c r="C23" s="23"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" t="s">
@@ -3229,8 +3229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA2B50C-AA25-8B49-B0CA-84B6326704E6}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -3241,24 +3241,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="50" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="23"/>
       <c r="E1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="32" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -3271,7 +3271,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -3280,14 +3280,14 @@
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="27"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -3296,7 +3296,7 @@
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="12" t="s">
         <v>5</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f>SUM(B8)</f>
+        <f>SUM(B8:B8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3362,29 +3362,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="50" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="23"/>
       <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="25" t="str">
+      <c r="F1" s="26" t="str">
         <f>HYPERLINK("${url}", "${linkText}")</f>
         <v>${linkText}</v>
       </c>
-      <c r="G1" s="25"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="32" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
@@ -3488,31 +3488,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="50" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="22" t="e" cm="1">
+      <c r="B1" s="24"/>
+      <c r="C1" s="23" t="e" cm="1">
         <f t="array" aca="1" ref="C1" ca="1">TBEG_IMAGE(ci)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="23"/>
       <c r="E1" t="e" cm="1">
         <f t="array" aca="1" ref="E1" ca="1">TBEG_IMAGE(logo)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F1" s="25" t="str">
+      <c r="F1" s="26" t="str">
         <f>HYPERLINK("${url}", "${linkText}")</f>
         <v>${linkText}</v>
       </c>
-      <c r="G1" s="25"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="32" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
@@ -3618,31 +3618,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="50" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="22" t="e" cm="1">
+      <c r="B1" s="24"/>
+      <c r="C1" s="23" t="e" cm="1">
         <f t="array" aca="1" ref="C1" ca="1">TBEG_IMAGE(ci)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="23"/>
       <c r="E1" t="e" cm="1">
         <f t="array" aca="1" ref="E1" ca="1">TBEG_IMAGE(logo)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F1" s="25" t="str">
+      <c r="F1" s="26" t="str">
         <f>HYPERLINK("${url}", "${linkText}")</f>
         <v>${linkText}</v>
       </c>
-      <c r="G1" s="25"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="32" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -3701,11 +3701,11 @@
       <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -3794,8 +3794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA5D6BA-70B1-BE44-ACEE-C077844E4035}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -3811,31 +3811,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="50" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="22" t="e" cm="1">
+      <c r="B1" s="24"/>
+      <c r="C1" s="23" t="e" cm="1">
         <f t="array" aca="1" ref="C1" ca="1">TBEG_IMAGE(ci)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="23"/>
       <c r="E1" t="e" cm="1">
         <f t="array" aca="1" ref="E1" ca="1">TBEG_IMAGE(logo)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F1" s="25" t="str">
+      <c r="F1" s="26" t="str">
         <f>HYPERLINK("${url}", "${linkText}")</f>
         <v>${linkText}</v>
       </c>
-      <c r="G1" s="25"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="32" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -3844,7 +3844,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="e" cm="1">
-        <f t="array" aca="1" ref="A4" ca="1">TBEG_REPEAT(emptyCollection, A6:C6, emp, A13:C13)</f>
+        <f t="array" aca="1" ref="A4" ca="1">TBEG_REPEAT(emptyCollection, A6:C6, emp, , A13:C13)</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -3890,11 +3890,11 @@
       <c r="B8" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -3915,7 +3915,7 @@
       <c r="F10" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="22" t="s">
         <v>45</v>
       </c>
     </row>
